--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ire/src/jimareed/qlik-rest-connector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDDDF8-4C2C-E74A-8932-20574E88B040}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DED1CB-81A6-364E-AF8C-2D6235C3E094}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="1180" windowWidth="23740" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -424,8 +424,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -749,14 +749,14 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1"/>
     <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -794,10 +794,10 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M1" t="s">
@@ -841,11 +841,11 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <f>DATEVALUE(RIGHT(J2,4)&amp;"-"&amp;MID(J2,4,2)&amp;"-"&amp;LEFT(J2,2))</f>
         <v>43287</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <f ca="1">TODAY()-K2</f>
         <v>31</v>
       </c>
@@ -892,11 +892,11 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K23" si="0">DATEVALUE(RIGHT(J3,4)&amp;"-"&amp;MID(J3,4,2)&amp;"-"&amp;LEFT(J3,2))</f>
         <v>43283</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L23" ca="1" si="1">TODAY()-K3</f>
         <v>35</v>
       </c>
@@ -943,11 +943,11 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>43280</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
@@ -994,11 +994,11 @@
       <c r="J5" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>43279</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
@@ -1045,11 +1045,11 @@
       <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>43271</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
@@ -1096,11 +1096,11 @@
       <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>43269</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
@@ -1144,11 +1144,11 @@
       <c r="J8" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>43263</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -1195,11 +1195,11 @@
       <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>43263</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -1246,11 +1246,11 @@
       <c r="J10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>43293</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
@@ -1297,11 +1297,11 @@
       <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>43294</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
@@ -1348,11 +1348,11 @@
       <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>43285</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
@@ -1396,11 +1396,11 @@
       <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>43273</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
@@ -1447,11 +1447,11 @@
       <c r="J14" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>43314</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="J15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>43287</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
@@ -1546,11 +1546,11 @@
       <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
         <v>43271</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
@@ -1594,11 +1594,11 @@
       <c r="J17" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
         <v>43272</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
@@ -1642,11 +1642,11 @@
       <c r="J18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
         <v>43277</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
@@ -1690,11 +1690,11 @@
       <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="0"/>
         <v>43304</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
@@ -1741,11 +1741,11 @@
       <c r="J20" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="0"/>
         <v>43265</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
@@ -1789,11 +1789,11 @@
       <c r="J21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="0"/>
         <v>43287</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
@@ -1840,11 +1840,11 @@
       <c r="J22" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>43285</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
@@ -1891,11 +1891,11 @@
       <c r="J23" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
         <v>43278</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
